--- a/diccionario ReprocesoCC.xlsx
+++ b/diccionario ReprocesoCC.xlsx
@@ -668,8 +668,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
